--- a/Assets/StreamingAssets/story/1.xlsx
+++ b/Assets/StreamingAssets/story/1.xlsx
@@ -28,122 +28,6 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
-  <si>
-    <t>Name(中文说话人）</t>
-  </si>
-  <si>
-    <t>Dialogue（中文文本内容）</t>
-  </si>
-  <si>
-    <t>Avatar（左下角任务头像）</t>
-  </si>
-  <si>
-    <t>Vocal（人物语言）</t>
-  </si>
-  <si>
-    <t>BGbgImg（背景图片）</t>
-  </si>
-  <si>
-    <t>BGM</t>
-  </si>
-  <si>
-    <t>CharacterNum（人物编号）</t>
-  </si>
-  <si>
-    <t>Action（出现位置）</t>
-  </si>
-  <si>
-    <t>CharacterImg（立绘）</t>
-  </si>
-  <si>
-    <t>LastBGImg(最后背景图片）</t>
-  </si>
-  <si>
-    <t>LastBGMusic（最后背景音乐）</t>
-  </si>
-  <si>
-    <t>English Name</t>
-  </si>
-  <si>
-    <t>English Dialogue</t>
-  </si>
-  <si>
-    <t>日本语名前</t>
-  </si>
-  <si>
-    <t>日本语对话</t>
-  </si>
-  <si>
-    <t>安妮</t>
-  </si>
-  <si>
-    <t>你好，[Name]</t>
-  </si>
-  <si>
-    <t>Annie</t>
-  </si>
-  <si>
-    <t>appearAt(0,-1)</t>
-  </si>
-  <si>
-    <t>One</t>
-  </si>
-  <si>
-    <t>アニー</t>
-  </si>
-  <si>
-    <t>一です</t>
-  </si>
-  <si>
-    <t>[Name]</t>
-  </si>
-  <si>
-    <t>你好，Annie。</t>
-  </si>
-  <si>
-    <t>Bella</t>
-  </si>
-  <si>
-    <t>中文</t>
-  </si>
-  <si>
-    <t>Two</t>
-  </si>
-  <si>
-    <t>二です</t>
-  </si>
-  <si>
-    <t>很高兴见到你。</t>
-  </si>
-  <si>
-    <t>moveTo(540,y)</t>
-  </si>
-  <si>
-    <t>Three</t>
-  </si>
-  <si>
-    <t>三です</t>
-  </si>
-  <si>
-    <t>我也是。</t>
-  </si>
-  <si>
-    <t>日语</t>
-  </si>
-  <si>
-    <t>moveTo(-540,y)</t>
-  </si>
-  <si>
-    <t>Four</t>
-  </si>
-  <si>
-    <t>四です</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
@@ -769,11 +653,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -835,536 +722,4 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
-<customStorage xmlns="https://web.wps.cn/et/2018/main">
-  <book/>
-  <sheets/>
-</customStorage>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="WPS">
-  <a:themeElements>
-    <a:clrScheme name="WPS">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4874CB"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="EE822F"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="F2BA02"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="75BD42"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="30C0B4"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="E54C5E"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0026E5"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="7E1FAD"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="WPS">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="WPS">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumOff val="17500"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="2700000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:hueOff val="-2520000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="2700000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:gradFill>
-            <a:gsLst>
-              <a:gs pos="0">
-                <a:schemeClr val="phClr">
-                  <a:hueOff val="-4200000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:schemeClr val="phClr"/>
-              </a:gs>
-            </a:gsLst>
-            <a:lin ang="2700000" scaled="1"/>
-          </a:gradFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="101600" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:schemeClr val="phClr">
-                <a:alpha val="60000"/>
-              </a:schemeClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:reflection stA="50000" endA="300" endPos="40000" dist="25400" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-</a:theme>
-</file>
-
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:O5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
-  <cols>
-    <col min="1" max="1" width="10.8333333333333" customWidth="1"/>
-    <col min="2" max="2" width="30.2777777777778" customWidth="1"/>
-    <col min="3" max="3" width="8.33333333333333" customWidth="1"/>
-    <col min="7" max="7" width="13.8240740740741" customWidth="1"/>
-    <col min="8" max="8" width="18.1296296296296" customWidth="1"/>
-    <col min="9" max="9" width="21.9444444444444" customWidth="1"/>
-    <col min="12" max="12" width="17.2222222222222" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="104.4" spans="1:15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3">
-        <f>IF(E2&lt;&gt;"",E2,J2)</f>
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <f>IF(F2&lt;&gt;"",F2,K2)</f>
-        <v>1</v>
-      </c>
-      <c r="L3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4">
-        <f>IF(E3&lt;&gt;"",E3,J3)</f>
-        <v>2</v>
-      </c>
-      <c r="K4">
-        <f>IF(F3&lt;&gt;"",F3,K3)</f>
-        <v>1</v>
-      </c>
-      <c r="L4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5">
-        <f>IF(E4&lt;&gt;"",E4,J4)</f>
-        <v>3</v>
-      </c>
-      <c r="K5">
-        <f>IF(F4&lt;&gt;"",F4,K4)</f>
-        <v>2</v>
-      </c>
-      <c r="L5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" t="s">
-        <v>35</v>
-      </c>
-      <c r="N5" t="s">
-        <v>22</v>
-      </c>
-      <c r="O5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/Assets/StreamingAssets/story/1.xlsx
+++ b/Assets/StreamingAssets/story/1.xlsx
@@ -26,6 +26,120 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+  <si>
+    <t>Name(说话人）</t>
+  </si>
+  <si>
+    <t>Dialogue（文本内容）</t>
+  </si>
+  <si>
+    <t>Avatar（左下角任务头像）</t>
+  </si>
+  <si>
+    <t>Vocal（人物语言）</t>
+  </si>
+  <si>
+    <t>BGImg（背景图片）</t>
+  </si>
+  <si>
+    <t>BGM</t>
+  </si>
+  <si>
+    <t>CharacterCommands（立绘编号，立绘执行操作，立绘位置，表情）</t>
+  </si>
+  <si>
+    <t>EnglishName（英文名）</t>
+  </si>
+  <si>
+    <t>EnglishContent（英文对应内容）</t>
+  </si>
+  <si>
+    <t>JapaneseName（日文名）</t>
+  </si>
+  <si>
+    <t>JapaneseContent（日文对应内容）</t>
+  </si>
+  <si>
+    <t>安妮</t>
+  </si>
+  <si>
+    <t>Annie</t>
+  </si>
+  <si>
+    <t>Annie
+appearAt
+0
+smile</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>アニーです</t>
+  </si>
+  <si>
+    <t>一です</t>
+  </si>
+  <si>
+    <t>贝拉</t>
+  </si>
+  <si>
+    <t>Bella</t>
+  </si>
+  <si>
+    <t>Bella
+appearAt
+0.2
+smile</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>ベラ</t>
+  </si>
+  <si>
+    <t>二です</t>
+  </si>
+  <si>
+    <t>跳转文件</t>
+  </si>
+  <si>
+    <t>好感度变化</t>
+  </si>
+  <si>
+    <t>好感度条件</t>
+  </si>
+  <si>
+    <t>Choice</t>
+  </si>
+  <si>
+    <t>今天天气不错
+二
+三
+四</t>
+  </si>
+  <si>
+    <t>1
+2
+3
+4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annie:+50
+Annie:-25;Bob:+25
+</t>
+  </si>
+  <si>
+    <t>Annie:0,100;Bob:-50,50
+Annie:100,200
+Bob:50,100</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -722,4 +836,442 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="WPS">
+  <a:themeElements>
+    <a:clrScheme name="WPS">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4874CB"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="EE822F"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="F2BA02"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="75BD42"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="30C0B4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="E54C5E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0026E5"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="7E1FAD"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="WPS">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="WPS">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumOff val="17500"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="2700000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:hueOff val="-2520000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="2700000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:gradFill>
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="phClr">
+                  <a:hueOff val="-4200000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="phClr"/>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="2700000" scaled="1"/>
+          </a:gradFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="101600" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:schemeClr val="phClr">
+                <a:alpha val="60000"/>
+              </a:schemeClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:reflection stA="50000" endA="300" endPos="40000" dist="25400" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+</a:theme>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
+  <cols>
+    <col min="2" max="2" width="16.3240740740741" customWidth="1"/>
+    <col min="4" max="4" width="23.1574074074074" customWidth="1"/>
+    <col min="5" max="5" width="34.0925925925926" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="208.8" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" ht="57.6" spans="1:11">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" ht="57.6" spans="1:11">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="2"/>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" ht="57.6" spans="1:5">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
 </file>